--- a/Excel/Sub.xlsx
+++ b/Excel/Sub.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -73,9 +73,6 @@
     <t xml:space="preserve">21</t>
   </si>
   <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
@@ -85,7 +82,7 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">猛力一擊</t>
+    <t xml:space="preserve">全力一擊</t>
   </si>
   <si>
     <t xml:space="preserve">該回合的物理攻擊力上升{1}%</t>
@@ -116,6 +113,24 @@
   </si>
   <si>
     <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">挑釁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使目標失去理性，接下來的行動必定會攻擊挑釁者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信仰之力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">該回合的魔法防禦力上升{1}%</t>
   </si>
 </sst>
 </file>
@@ -125,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,6 +166,18 @@
       <family val="0"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,7 +221,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -205,6 +232,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -400,10 +443,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="A1:M5"/>
+      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="A1:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -451,7 +494,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -471,11 +514,11 @@
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>1</v>
@@ -488,33 +531,33 @@
         <v>1</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>1</v>
@@ -527,33 +570,33 @@
         <v>1</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>1</v>
@@ -566,33 +609,33 @@
         <v>1</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>1</v>
@@ -605,9 +648,85 @@
         <v>1</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Sub.xlsx
+++ b/Excel/Sub.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BuffGroup</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -221,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -248,10 +251,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -609,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M4" s="1" t="n">
         <v>0</v>
@@ -617,19 +616,19 @@
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>-1</v>
@@ -648,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M5" s="1" t="n">
         <v>0</v>
@@ -659,22 +658,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>-1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>2</v>
@@ -693,40 +692,40 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>47</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
